--- a/docs/bom/GPS-Compass_Main_BOM.xlsx
+++ b/docs/bom/GPS-Compass_Main_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\Documents\GitHub\GPS-Compass\docs\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\GPS-Compass\docs\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F6015A-C47B-4C34-A84D-21E4F5F87967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BE12DA-587D-42D0-AC3B-B9D77F9AFF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{318D0819-0F8D-4535-926A-50240C04F6C9}"/>
+    <workbookView xWindow="28680" yWindow="900" windowWidth="29040" windowHeight="15720" xr2:uid="{318D0819-0F8D-4535-926A-50240C04F6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="GPS-Compass_main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
   <si>
     <t>Value</t>
   </si>
@@ -421,73 +421,25 @@
     <t>2.2k, 125mW, 0805</t>
   </si>
   <si>
-    <t>https://datasheets.maximintegrated.com/en/ds/MAX7219-MAX7221.pdf</t>
-  </si>
-  <si>
-    <t>MAX7219</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/cz/en/details/osk3056a-lr/7-segment-led-displays/optosupply</t>
-  </si>
-  <si>
-    <t>OSK3056A-LR</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>R65</t>
-  </si>
-  <si>
-    <t>R1,R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,R58,R59,R60,R61,R62,R63,R64</t>
-  </si>
-  <si>
-    <t>INDICATOR</t>
-  </si>
-  <si>
-    <t>https://cz.mouser.com/ProductDetail/GCT/FFC2B28-12-G?qs=KUoIvG%2F9Ilb3Lmj8zxhxfA%3D%3D</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>https://cz.mouser.com/ProductDetail/Toshiba/74VHC9595FT?qs=u16ybLDytRbzC5Ojd9v%252B6Q%3D%3D</t>
-  </si>
-  <si>
-    <t>74VHC9595FT</t>
-  </si>
-  <si>
-    <t>IC1,IC2,IC3,IC4,IC5,IC6,IC7,IC8</t>
-  </si>
-  <si>
-    <t>LED_Small</t>
-  </si>
-  <si>
-    <t>D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13,D14,D15,D16,D17,D18,D19,D20,D21,D22,D23,D24,D25,D26,D27,D28,D29,D30,D31,D32,D33,D34,D35,D36,D37,D38,D39,D40,D41,D42,D43,D44,D45,D46,D47,D48,D49,D50,D51,D52,D53,D54,D55,D56,D57,D58,D59,D60,D61,D62,D63,D64</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C1,C2,C3,C4,C5,C6,C7,C8,C10</t>
-  </si>
-  <si>
-    <t>LED_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>R_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>SOP-24_7.5x15.4mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>SOP65P640X120-16N</t>
-  </si>
-  <si>
-    <t>ARROW</t>
+    <t>5.23k, 125mW, 0805</t>
+  </si>
+  <si>
+    <t>30.1k, 100mW, 0805</t>
+  </si>
+  <si>
+    <t>NTC 10k, 0805</t>
+  </si>
+  <si>
+    <t>120R, 125mW, 0805</t>
+  </si>
+  <si>
+    <t>https://cz.mouser.com/ProductDetail/Vishay/CRCW080510K0FKEA?qs=LOX6nxTstiZjDFtI%2F0c8Lw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://cz.mouser.com/ProductDetail/Vishay/CRCW0805220RFKEA?qs=t6Mf8e9K%2Fun9XzSoZpvX3g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://cz.mouser.com/ProductDetail/STMicroelectronics/USBLC6-2SC6?qs=po45yt2pPpu%2FhNIlwQdTlg%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -995,7 +947,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1039,6 +991,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1073,60 +1026,61 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+  <cellStyles count="44">
+    <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Celkem" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" xr:uid="{76D8BAD3-8DB4-4D57-868C-52AAB2B9BDF2}"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="43" builtinId="8"/>
+    <cellStyle name="Kontrolní buňka" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Nadpis 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Nadpis 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Nadpis 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Nadpis 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Název" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Neutrální" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Poznámka" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Propojená buňka" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Správně" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Špatně" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Text upozornění" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vstup" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Výpočet" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Výstup" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Vysvětlující text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1142,7 +1096,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1460,23 +1414,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C378E24-255E-4758-9EA3-ADC3BD7350B6}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="5" width="35" style="8" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="38.88671875" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="8"/>
+    <col min="6" max="6" width="32.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>90</v>
       </c>
@@ -1499,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1515,9 +1469,12 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1538,7 +1495,7 @@
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1559,7 +1516,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1580,7 +1537,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1601,7 +1558,7 @@
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1622,7 +1579,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1643,7 +1600,7 @@
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1664,7 +1621,7 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1685,7 +1642,7 @@
       </c>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1706,7 +1663,7 @@
       </c>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1727,7 +1684,7 @@
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1748,7 +1705,7 @@
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1769,7 +1726,7 @@
       </c>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1785,12 +1742,12 @@
       <c r="E15" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="6" t="s">
         <v>112</v>
       </c>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1806,12 +1763,12 @@
       <c r="E16" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1827,12 +1784,12 @@
       <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="6" t="s">
         <v>115</v>
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1848,12 +1805,12 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="6" t="s">
         <v>116</v>
       </c>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1869,12 +1826,15 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G19" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1895,7 +1855,7 @@
       </c>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1911,9 +1871,12 @@
       <c r="E21" t="s">
         <v>45</v>
       </c>
+      <c r="F21" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1929,12 +1892,15 @@
       <c r="E22" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="G22" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1950,9 +1916,12 @@
       <c r="E23" t="s">
         <v>69</v>
       </c>
+      <c r="F23" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1968,9 +1937,12 @@
       <c r="E24" t="s">
         <v>64</v>
       </c>
+      <c r="F24" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1986,12 +1958,12 @@
       <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2007,12 +1979,12 @@
       <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>120</v>
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2028,12 +2000,12 @@
       <c r="E27" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="6" t="s">
         <v>124</v>
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2049,9 +2021,12 @@
       <c r="E28" t="s">
         <v>89</v>
       </c>
+      <c r="F28" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2067,12 +2042,12 @@
       <c r="E29" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2088,12 +2063,12 @@
       <c r="E30" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="6" t="s">
         <v>126</v>
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2109,12 +2084,12 @@
       <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="6" t="s">
         <v>128</v>
       </c>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2135,7 +2110,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2151,12 +2126,15 @@
       <c r="E33" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="G33" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2172,12 +2150,12 @@
       <c r="E34" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="6" t="s">
         <v>123</v>
       </c>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2198,7 +2176,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2214,12 +2192,12 @@
       <c r="E36" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="6" t="s">
         <v>125</v>
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2240,7 +2218,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2261,398 +2239,273 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="B40" s="8" t="s">
-        <v>155</v>
-      </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="14">
-        <v>9</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="14">
-        <v>1</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="14">
-        <v>64</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="14">
-        <v>8</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="14">
-        <v>1</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>6</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="14">
-        <v>1</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>7</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="14">
-        <v>64</v>
-      </c>
-      <c r="E47" s="14">
-        <v>220</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>8</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="14">
-        <v>1</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>9</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="14">
-        <v>1</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="14">
-        <v>1</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51"/>
-      <c r="H51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="C53"/>
       <c r="E53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54"/>
       <c r="E54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55"/>
       <c r="E55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56"/>
       <c r="E56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C57"/>
       <c r="E57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58"/>
       <c r="E58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59"/>
       <c r="E59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60"/>
       <c r="E60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61"/>
       <c r="E61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62"/>
       <c r="E62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63"/>
       <c r="E63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64"/>
       <c r="E64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65"/>
       <c r="E65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66"/>
       <c r="E66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67"/>
       <c r="E67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68"/>
       <c r="E68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69"/>
       <c r="E69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70"/>
       <c r="E70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71"/>
       <c r="E71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72"/>
       <c r="E72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="E73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74"/>
       <c r="E74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" s="6"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87" s="10"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88" s="10"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89" s="6"/>
     </row>
   </sheetData>
@@ -2690,6 +2543,10 @@
     <hyperlink ref="F37" r:id="rId28" xr:uid="{CC23CFDE-49D4-497E-B92C-22A03707FAEA}"/>
     <hyperlink ref="F38" r:id="rId29" xr:uid="{2101A1E2-7E26-4D19-9FC1-785358D2B36B}"/>
     <hyperlink ref="F20" r:id="rId30" xr:uid="{34943564-3EAB-4EEE-B29C-8B11B6334F96}"/>
+    <hyperlink ref="F23" r:id="rId31" xr:uid="{0D18BC13-3703-453D-A017-71FA08B6FBC8}"/>
+    <hyperlink ref="F24" r:id="rId32" xr:uid="{A3DF460E-1962-4905-8E0E-E1FC368C6780}"/>
+    <hyperlink ref="F28" r:id="rId33" xr:uid="{7B231DD2-84D5-4B58-A6E3-B77B35F58D60}"/>
+    <hyperlink ref="F21" r:id="rId34" xr:uid="{23260164-0F9F-4329-A434-75C98FC36E7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/bom/GPS-Compass_Main_BOM.xlsx
+++ b/docs/bom/GPS-Compass_Main_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\GPS-Compass\docs\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BE12DA-587D-42D0-AC3B-B9D77F9AFF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A3B744-F54E-482F-BD8D-2E72618D1AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="900" windowWidth="29040" windowHeight="15720" xr2:uid="{318D0819-0F8D-4535-926A-50240C04F6C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{318D0819-0F8D-4535-926A-50240C04F6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="GPS-Compass_main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
   <si>
     <t>Value</t>
   </si>
@@ -431,15 +431,6 @@
   </si>
   <si>
     <t>120R, 125mW, 0805</t>
-  </si>
-  <si>
-    <t>https://cz.mouser.com/ProductDetail/Vishay/CRCW080510K0FKEA?qs=LOX6nxTstiZjDFtI%2F0c8Lw%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cz.mouser.com/ProductDetail/Vishay/CRCW0805220RFKEA?qs=t6Mf8e9K%2Fun9XzSoZpvX3g%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cz.mouser.com/ProductDetail/STMicroelectronics/USBLC6-2SC6?qs=po45yt2pPpu%2FhNIlwQdTlg%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C378E24-255E-4758-9EA3-ADC3BD7350B6}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,9 +1820,6 @@
       <c r="F19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1895,9 +1883,6 @@
       <c r="F22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2128,9 +2113,6 @@
       </c>
       <c r="F33" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="H33"/>
     </row>
@@ -2549,5 +2531,6 @@
     <hyperlink ref="F21" r:id="rId34" xr:uid="{23260164-0F9F-4329-A434-75C98FC36E7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId35"/>
 </worksheet>
 </file>